--- a/results/Homeopathy_excluded/mod3.corrupt_salience.slopes.eff.COMB.xlsx
+++ b/results/Homeopathy_excluded/mod3.corrupt_salience.slopes.eff.COMB.xlsx
@@ -422,25 +422,25 @@
         <v>10</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.260452144218065</v>
+        <v>-0.260449188505473</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0668839113434761</v>
+        <v>0.0668835341720243</v>
       </c>
       <c r="E2" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.391542201596448</v>
+        <v>-0.391538506641394</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.129362086839682</v>
+        <v>-0.129359870369551</v>
       </c>
       <c r="H2" t="n">
-        <v>-3.89409259994586</v>
+        <v>-3.89407036768718</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0000985669946288387</v>
+        <v>0.0000985760338494328</v>
       </c>
     </row>
     <row r="3">
@@ -451,25 +451,25 @@
         <v>10</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.0976423121907013</v>
+        <v>-0.0976408858347627</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0639060272188314</v>
+        <v>0.0639057367970945</v>
       </c>
       <c r="E3" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.222895823934647</v>
+        <v>-0.222893828362564</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0276111995532446</v>
+        <v>0.0276120566930385</v>
       </c>
       <c r="H3" t="n">
-        <v>-1.52790458803436</v>
+        <v>-1.52788921196199</v>
       </c>
       <c r="I3" t="n">
-        <v>0.126536228916625</v>
+        <v>0.126540047145762</v>
       </c>
     </row>
     <row r="4">
@@ -480,25 +480,25 @@
         <v>10</v>
       </c>
       <c r="C4" t="n">
-        <v>0.11731891003304</v>
+        <v>0.11731866947604</v>
       </c>
       <c r="D4" t="n">
-        <v>0.128396284409949</v>
+        <v>0.128395754585448</v>
       </c>
       <c r="E4" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.134333183159223</v>
+        <v>-0.13433238527928</v>
       </c>
       <c r="G4" t="n">
-        <v>0.368971003225302</v>
+        <v>0.368969724231361</v>
       </c>
       <c r="H4" t="n">
-        <v>0.913725117297464</v>
+        <v>0.91372701422121</v>
       </c>
       <c r="I4" t="n">
-        <v>0.360861302533443</v>
+        <v>0.360860305534452</v>
       </c>
     </row>
     <row r="5">
@@ -509,25 +509,25 @@
         <v>13</v>
       </c>
       <c r="C5" t="n">
-        <v>0.138312793238551</v>
+        <v>0.138314147098757</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0842924768961556</v>
+        <v>0.0842918555508154</v>
       </c>
       <c r="E5" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.0268974256455883</v>
+        <v>-0.0268948539708934</v>
       </c>
       <c r="G5" t="n">
-        <v>0.303523012122691</v>
+        <v>0.303523148168408</v>
       </c>
       <c r="H5" t="n">
-        <v>1.64086758785065</v>
+        <v>1.64089574484897</v>
       </c>
       <c r="I5" t="n">
-        <v>0.100824904477441</v>
+        <v>0.100819058473984</v>
       </c>
     </row>
     <row r="6">
@@ -538,25 +538,25 @@
         <v>13</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0630474315941076</v>
+        <v>0.0630482860168412</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0620754036746002</v>
+        <v>0.0620749614344076</v>
       </c>
       <c r="E6" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.0586181239338941</v>
+        <v>-0.0586164027363106</v>
       </c>
       <c r="G6" t="n">
-        <v>0.184712987122109</v>
+        <v>0.184712974769993</v>
       </c>
       <c r="H6" t="n">
-        <v>1.015658825589</v>
+        <v>1.01567982580967</v>
       </c>
       <c r="I6" t="n">
-        <v>0.309791881635985</v>
+        <v>0.309781877991215</v>
       </c>
     </row>
     <row r="7">
@@ -567,25 +567,25 @@
         <v>13</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0397820862724443</v>
+        <v>0.0397821029195982</v>
       </c>
       <c r="D7" t="n">
-        <v>0.086717642439629</v>
+        <v>0.0867170144047617</v>
       </c>
       <c r="E7" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.130181369733451</v>
+        <v>-0.130180122160576</v>
       </c>
       <c r="G7" t="n">
-        <v>0.209745542278339</v>
+        <v>0.209744327999772</v>
       </c>
       <c r="H7" t="n">
-        <v>0.458754241389113</v>
+        <v>0.458757755818376</v>
       </c>
       <c r="I7" t="n">
-        <v>0.646410657863942</v>
+        <v>0.646408133832872</v>
       </c>
     </row>
   </sheetData>
